--- a/resource/statistics.xlsx
+++ b/resource/statistics.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6020" yWindow="600" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="priority" sheetId="1" r:id="rId1"/>
     <sheet name="email_length" sheetId="2" r:id="rId2"/>
     <sheet name="feature_num" sheetId="3" r:id="rId3"/>
+    <sheet name="independent" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +77,38 @@
   </si>
   <si>
     <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互信息+独立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义+独立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合+独立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1572,6 +1605,1186 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>互信息</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>independent!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>互信息</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>independent!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>independent!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>independent!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>互信息+独立</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>independent!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>independent!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2102576768"/>
+        <c:axId val="-2074758912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2102576768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074758912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2074758912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2102576768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>自定义</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>independent!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自定义</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>independent!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>independent!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>independent!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自定义+独立</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>independent!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>independent!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2073700704"/>
+        <c:axId val="-2073442048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2073700704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2073442048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073442048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2073700704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>综合</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>independent!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>综合</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>independent!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>independent!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>independent!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>综合+独立</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>independent!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>independent!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2076930096"/>
+        <c:axId val="-2073888944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2076930096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2073888944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073888944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2076930096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1692,6 +2905,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2700,6 +4033,1515 @@
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3293,6 +6135,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3735,7 +6672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -3816,4 +6753,119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D2">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0.878</v>
+      </c>
+      <c r="C9">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.877</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>